--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1总" sheetId="3" r:id="rId1"/>
-    <sheet name="11民生" sheetId="1" r:id="rId2"/>
-    <sheet name="13通报" sheetId="2" r:id="rId3"/>
+    <sheet name="02级" sheetId="4" r:id="rId2"/>
+    <sheet name="03部" sheetId="8" r:id="rId3"/>
+    <sheet name="04基金分级收支" sheetId="5" r:id="rId4"/>
+    <sheet name="11民生" sheetId="1" r:id="rId5"/>
+    <sheet name="13通报" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="104">
   <si>
     <t>支出项目</t>
   </si>
@@ -197,16 +200,214 @@
   <si>
     <t>t.zca5</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表二：抚州市2020年1-5月财政总收入分县（区）分级次完成情况表</t>
+  </si>
+  <si>
+    <t>财政总收入完成情况</t>
+  </si>
+  <si>
+    <t>收入分级次完成情况</t>
+  </si>
+  <si>
+    <t>2020年市、县人大通过的预期目标</t>
+  </si>
+  <si>
+    <t>累计数较上年同期增减</t>
+  </si>
+  <si>
+    <t>公共财政预算收入</t>
+  </si>
+  <si>
+    <t>中央收入</t>
+  </si>
+  <si>
+    <t>省级收入</t>
+  </si>
+  <si>
+    <t>上年同期数</t>
+  </si>
+  <si>
+    <t>增减额</t>
+  </si>
+  <si>
+    <t>t.a6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a16}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_2ji t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府性基金收入</t>
+  </si>
+  <si>
+    <t>政府性基金支出</t>
+  </si>
+  <si>
+    <t>其中：国土基金收支情况</t>
+  </si>
+  <si>
+    <t>本年累计收入</t>
+  </si>
+  <si>
+    <t>去年同期</t>
+  </si>
+  <si>
+    <t>表四:抚州市2020年1-5月基金收支情况表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_4jijin t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a13}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_3bu t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a19}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年县区
+上报预期目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同比增长%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成预期目标%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本年累计完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同比增长%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>较上年同期增减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：万元、%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表三：抚州市2020年1-5月财政总收入分县（区）分部门完成情况表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +469,48 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,12 +649,165 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,26 +817,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -765,31 +1146,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -884,6 +1265,3790 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEO6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="YG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="YW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ZM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AAC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AAS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ABI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ABY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ACO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ADE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ADU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AEK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AFA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AFQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AGG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AGW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AHM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AIC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AIS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AKO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ALE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ALU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AMK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ANA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ANQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AOG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AOW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="APM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ARI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ARY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ASO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ATE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ATU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AUK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AVA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AVQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AWG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AWW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AXM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AYC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AYS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BAO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BBE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BBU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BCK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BDA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BDQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BEG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BEW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BFM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BGC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BGS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BHI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BHY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BIO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BKK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BLA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BLQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BMG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BMW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BNM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BOC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BOS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BPI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BPY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BRE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BRU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BSK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BTA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BTQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BUG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BUW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BVM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BWC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BWS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BXI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BXY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BYO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CAK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CBA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CBQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CCG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CCW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CDM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CEC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CES1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CFI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CFY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CGO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CHE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CHU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CIK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CKG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CKW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CLM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CMC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CMS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CNI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CNY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="COO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CPE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CPU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CQK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CRA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CRQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CSG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CSW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CTM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CUC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CUS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CVI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CVY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CWO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CXE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CXU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CYK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CZA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CZQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DAG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DAW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DBM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DCC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DCS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DDI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DDY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DEO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DFE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DFU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DGK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DHA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DHQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DIG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DIW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DJM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DKC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DKS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DLI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DLY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DMO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DNE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DNU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DOK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DPA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DPQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DQG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DQW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DRM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DSC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DSS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DTI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DTY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DUO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DVE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DVU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DWK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DXA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DXQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DYG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DYW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="DZM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EAC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EAS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EBI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EBY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ECO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EDE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EDU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EEK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EFA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EFQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EGG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EGW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EHM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EIC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EIS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EJI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EJY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EKO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ELE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ELU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EMK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ENA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ENQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EOG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EOW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EPM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EQC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EQS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ERI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ERY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ESO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ETE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ETU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EUK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EVA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EVQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EWG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EWW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EXM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EYC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EYS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="EZY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FAO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FBE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FBU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FCK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FDA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FDQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FEG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FEW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FFM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FGC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FGS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FHI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FHY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FIO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FJE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FJU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FKK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FLA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FLQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FMG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FMW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FNM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FOC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FOS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FPI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FPY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FQO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FRE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FRU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FSK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FTA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FTQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FUG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FUW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FVM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FWC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FWS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FXI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FXY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FYO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FZE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FZU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GAK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GBA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GBQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GCG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GCW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GDM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GEC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GES1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GFI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GFY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GGO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GHE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GHU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GIK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GJA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GJQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GKG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GKW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GLM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GMC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GMS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GNI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GNY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GOO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GPE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GPU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GQK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GRA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GRQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GSG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GSW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GTM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GUC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GUS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GVI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GVY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GWO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GXE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GXU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GYK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GZA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GZQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HAG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HAW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HBM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HCC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HCS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HDI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HDY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HEO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HFE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HFU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HGK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HHA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HHQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HIG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HIW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HJM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HKC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HKS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HLI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HLY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HMO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HNE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HNU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HOK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HPA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HPQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HQG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HQW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HRM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HSC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HSS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HTI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HTY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HUO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HVE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HVU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HWK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HXA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HXQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HYG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HYW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HZM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IAC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IAS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IBI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IBY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ICO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IDE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IDU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IEK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IFA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IFQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IGG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IGW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IHM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IIC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IIS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IJI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IJY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IKO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ILE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ILU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IMK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="INA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="INQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IOG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IOW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IPM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IQC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IQS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IRI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IRY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ISO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ITE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ITU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IUK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IVA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IVQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IWG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IWW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IXM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IYC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IYS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IZI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IZY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JAO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JBE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JBU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JCK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JDA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JDQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JEG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JEW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JFM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JGC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JGS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JHI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JHY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JIO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JJE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JJU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JKK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JLA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JLQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JMG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JMW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JNM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JOC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JOS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JPI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JPY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JQO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JRE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JRU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JSK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JTA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JTQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JUG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JUW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JVM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JWC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JWS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JXI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JXY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JYO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JZE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="JZU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KAK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KBA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KBQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KCG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KCW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KDM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KEC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KES1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KFI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KFY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KGO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KHE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KHU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KIK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KJA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KJQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KKG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KKW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KLM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KMC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KMS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KNI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KNY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KOO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KPE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KPU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KQK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KRA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KRQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KSG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KSW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KTM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KUC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KUS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KVI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KVY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KWO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KXE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KXU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KYK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KZA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="KZQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LAG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LAW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LBM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LCC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LCS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LDI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LDY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LEO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LFE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LFU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LGK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LHA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LHQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LIG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LIW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LJM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LKC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LKS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LLI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LLY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LMO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LNE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LNU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LOK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LPA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LPQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LQG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LQW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LRM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LSC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LSS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LTI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LTY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LUO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LVE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LVU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LWK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LXA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LXQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LYG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LYW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LZM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MAC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MAS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MBI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MBY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MCO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MDE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MDU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MEK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MFA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MFQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MGG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MGW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MHM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MIC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MIS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MJI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MJY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MKO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MLE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MLU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MMK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MNA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MNQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MOG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MOW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MPM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MQC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MQS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MRI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MRY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MSO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MTE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MTU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MUK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MVA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MVQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MWG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MWW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MXM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MYC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MYS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MZI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MZY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NAO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NBE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NBU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NCK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NDA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NDQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NEG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NEW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NFM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NGC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NGS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NHI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NHY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NIO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NJE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NJU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NKK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NLA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NLQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NMG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NMW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NNM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NOC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NOS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NPI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NPY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NQO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NRE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NRU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NSK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NTA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NTQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NUG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NUW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NVM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NWC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NWS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NXI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NXY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NYO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NZE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="NZU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OAK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OBA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OBQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OCG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OCW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ODM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OEC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OES1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OFI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OFY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OGO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OHE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OHU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OIK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OJA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OJQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OKG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OKW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OLM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OMC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OMS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ONI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ONY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OOO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OPE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OPU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OQK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ORA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ORQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OSG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OSW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OTM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OUC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OUS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OVI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OVY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OWO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OXE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OXU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OYK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OZA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="OZQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PAG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PAW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PBM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PCC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PCS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PDI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PDY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PEO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PFE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PFU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PGK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PHA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PHQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PIG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PIW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PJM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PKC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PKS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PLI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PLY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PMO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PNE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PNU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="POK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PPA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PPQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PQG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PQW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PRM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PSC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PSS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PTI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PTY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PUO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PVE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PVU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PWK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PXA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PXQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PYG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PYW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="PZM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QAC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QAS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QBI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QBY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QCO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QDE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QDU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QEK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QFA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QFQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QGG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QGW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QHM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QIC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QIS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QJI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QJY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QKO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QLE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QLU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QMK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QNA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QNQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QOG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QOW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QPM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QQC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QQS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QRI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QRY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QSO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QTE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QTU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QUK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QVA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QVQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QWG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QWW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QXM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QYC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QYS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QZI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="QZY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RAO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RBE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RBU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RCK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RDA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RDQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="REG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="REW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RFM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RGC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RGS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RHI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RHY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RIO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RJE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RJU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RKK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RLA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RLQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RMG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RMW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RNM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ROC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ROS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RPI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RPY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RQO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RRE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RRU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RSK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RTA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RTQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RUG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RUW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RVM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RWC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RWS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RXI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RXY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RYO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RZE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="RZU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SAK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SBA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SBQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SCG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SCW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SDM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SEC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SES1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SFI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SFY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SGO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SHE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SHU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SIK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SJA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SJQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SKG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SKW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SLM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SMC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SMS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SNI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SNY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SOO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SPE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SPU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SQK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SRA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SRQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SSG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SSW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="STM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SUC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SUS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SVI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SVY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SWO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SXE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SXU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SYK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SZA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="SZQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TAG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TAW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TBM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TCC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TCS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TDI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TDY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TEO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TFE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TFU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TGK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="THA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="THQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TIG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TIW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TJM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TKC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TKS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TLI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TLY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TMO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TNE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TNU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TOK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TPA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TPQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TQG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TQW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TRM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TSC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TSS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TTI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TTY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TUO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TVE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TVU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TWK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TXA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TXQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TYG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TYW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="TZM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UAC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UAS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UBI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UBY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UCO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UDE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UDU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UEK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UFA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UFQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UGG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UGW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UHM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UIC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UIS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UJI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UJY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UKO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ULE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ULU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UMK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UNA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UNQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UOG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UOW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UPM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UQC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UQS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="URI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="URY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="USO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UTE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UTU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UUK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UVA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UVQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UWG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UWW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UXM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UYC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UYS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UZI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="UZY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VAO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VBE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VBU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VCK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VDA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VDQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VEG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VEW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VFM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VGC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VGS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VHI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VHY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VIO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VJE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VJU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VKK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VLA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VLQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VMG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VMW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VNM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VOC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VOS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VPI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VPY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VQO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VRE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VRU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VSK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VTA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VTQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VUG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VUW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VVM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VWC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VWS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VXI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VXY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VYO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VZE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="VZU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WAK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WBA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WBQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WCG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WCW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WDM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WEC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WES1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WFI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WFY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WGO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WHE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WHU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WIK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WJA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WJQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WKG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WKW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WLM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WMC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WMS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WNI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WNY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WOO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WPE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WPU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WQK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WRA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WRQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WSG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WSW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WTM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WUC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WUS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WVI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WVY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WWO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WXE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WXU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WYK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WZA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="WZQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XAG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XAW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XBM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XCC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XCS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XDI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XDY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="XEO1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" x14ac:dyDescent="0.25">
+      <c r="J2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
+    </row>
+    <row r="4" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="J2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+    </row>
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="P2" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+    </row>
+    <row r="3" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+    </row>
+    <row r="4" spans="1:19" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="50"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+    </row>
+    <row r="5" spans="1:19" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+    </row>
+    <row r="6" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="50"/>
+      <c r="B6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="45"/>
+      <c r="P6" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="45"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" s="17" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="60"/>
+    </row>
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -901,74 +5066,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1039,14 +5204,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1总" sheetId="3" r:id="rId1"/>
     <sheet name="02级" sheetId="4" r:id="rId2"/>
     <sheet name="03部" sheetId="8" r:id="rId3"/>
     <sheet name="04基金分级收支" sheetId="5" r:id="rId4"/>
-    <sheet name="11民生" sheetId="1" r:id="rId5"/>
-    <sheet name="13通报" sheetId="2" r:id="rId6"/>
+    <sheet name="05税" sheetId="9" r:id="rId5"/>
+    <sheet name="06财" sheetId="10" r:id="rId6"/>
+    <sheet name="07税比" sheetId="11" r:id="rId7"/>
+    <sheet name="10支出" sheetId="12" r:id="rId8"/>
+    <sheet name="11民生" sheetId="1" r:id="rId9"/>
+    <sheet name="13通报" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="212">
   <si>
     <t>支出项目</t>
   </si>
@@ -397,17 +401,398 @@
   </si>
   <si>
     <t>表三：抚州市2020年1-5月财政总收入分县（区）分部门完成情况表</t>
+  </si>
+  <si>
+    <t>t.a19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a51}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_5shui t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：其他税收税含上划中央其他税收（营业税）、上划省级其他税收（营业税)</t>
+  </si>
+  <si>
+    <t>税种</t>
+  </si>
+  <si>
+    <t>增值税</t>
+  </si>
+  <si>
+    <t>消费税</t>
+  </si>
+  <si>
+    <t>企业所得税</t>
+  </si>
+  <si>
+    <t>个人所得税</t>
+  </si>
+  <si>
+    <t>资源税</t>
+  </si>
+  <si>
+    <t>城市维护建设税</t>
+  </si>
+  <si>
+    <t>房产税</t>
+  </si>
+  <si>
+    <t>印花税</t>
+  </si>
+  <si>
+    <t>城镇土地使用税</t>
+  </si>
+  <si>
+    <t>土地增值税</t>
+  </si>
+  <si>
+    <t>车船税</t>
+  </si>
+  <si>
+    <t>烟叶税</t>
+  </si>
+  <si>
+    <t>环境保护税</t>
+  </si>
+  <si>
+    <t>耕地占用税</t>
+  </si>
+  <si>
+    <t>契税</t>
+  </si>
+  <si>
+    <t>其他税收</t>
+  </si>
+  <si>
+    <t>县区</t>
+  </si>
+  <si>
+    <t>本年累计</t>
+  </si>
+  <si>
+    <t>增长%</t>
+  </si>
+  <si>
+    <t>表五：抚州市2020年1-5月税收收入完成情况表</t>
+  </si>
+  <si>
+    <t>t.a19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>专项收入</t>
+  </si>
+  <si>
+    <t>行政性收费收入</t>
+  </si>
+  <si>
+    <t>罚没收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  国有资本经营收入</t>
+  </si>
+  <si>
+    <t>国有资源（资产）有偿使用收入</t>
+  </si>
+  <si>
+    <t>捐赠收入</t>
+  </si>
+  <si>
+    <t>政府性住房基金收入</t>
+  </si>
+  <si>
+    <t>其他收入</t>
+  </si>
+  <si>
+    <t>县市名称</t>
+  </si>
+  <si>
+    <t>t.a24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表六：抚州市2020年1-5月财政部门收入完成情况表</t>
+  </si>
+  <si>
+    <t>单位:万元、%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_6cai t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税收占比目标%</t>
+  </si>
+  <si>
+    <t>目标差距</t>
+  </si>
+  <si>
+    <t>所占比重升降(百分点)</t>
+  </si>
+  <si>
+    <t>税收收入(全口径)增减%</t>
+  </si>
+  <si>
+    <t>财政总收入</t>
+  </si>
+  <si>
+    <t>其中:税收收入</t>
+  </si>
+  <si>
+    <t>完成目标%</t>
+  </si>
+  <si>
+    <t>占总收入比重%</t>
+  </si>
+  <si>
+    <t>表七:抚州市2020年1-5月税收收入占财政总收入比重情况表</t>
+  </si>
+  <si>
+    <t>{{$fe:list_7shuibi t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共财政预算支出</t>
+  </si>
+  <si>
+    <t>其中：八项支出合计</t>
+  </si>
+  <si>
+    <t>一般公共服务</t>
+  </si>
+  <si>
+    <t>公共安全</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>科学技术</t>
+  </si>
+  <si>
+    <t>社会保障和就业</t>
+  </si>
+  <si>
+    <t>医疗卫生</t>
+  </si>
+  <si>
+    <t>节能环保</t>
+  </si>
+  <si>
+    <t>城乡社区事务</t>
+  </si>
+  <si>
+    <t>农林水事务</t>
+  </si>
+  <si>
+    <t>表十:抚州市2020年1-5月公共预算支出分县（区）执行情况表</t>
+  </si>
+  <si>
+    <t>{{$fe:list_10zhichu t.a1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,16 +897,72 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -627,12 +1068,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,6 +1141,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,6 +1280,18 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,23 +1299,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,6 +1338,88 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -839,6 +1453,112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30480" y="7620"/>
+          <a:ext cx="1737360" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620" y="403860"/>
+          <a:ext cx="1760220" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,31 +1866,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1258,6 +1978,83 @@
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="64.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1280,24 +2077,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="A1" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
       <c r="AG1" t="s">
         <v>51</v>
       </c>
@@ -4366,77 +5163,77 @@
       </c>
     </row>
     <row r="2" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" x14ac:dyDescent="0.25">
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39" t="s">
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
     </row>
     <row r="5" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
@@ -4549,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4567,178 +5364,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="1:19" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
     </row>
     <row r="5" spans="1:19" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45" t="s">
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
     </row>
     <row r="6" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="81"/>
+      <c r="M6" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="47" t="s">
+      <c r="O6" s="75"/>
+      <c r="P6" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="45"/>
+      <c r="R6" s="75"/>
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" s="17" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="19" t="s">
         <v>94</v>
       </c>
@@ -4748,15 +5545,15 @@
       <c r="K7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="19" t="s">
         <v>91</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="47"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="19" t="s">
         <v>94</v>
       </c>
@@ -4828,14 +5625,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="L3:S3"/>
@@ -4852,6 +5641,14 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4864,7 +5661,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4884,88 +5681,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="60"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:17" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5050,6 +5847,1589 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27"/>
+    </row>
+    <row r="2" spans="1:78" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="27"/>
+      <c r="BW2" s="27"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+    </row>
+    <row r="3" spans="1:78" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+    </row>
+    <row r="4" spans="1:78" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+    </row>
+    <row r="5" spans="1:78" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH5" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY5" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="99"/>
+      <c r="AV6" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A6:AV6"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="V2" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+    </row>
+    <row r="3" spans="1:53" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+    </row>
+    <row r="4" spans="1:53" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="108"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+    </row>
+    <row r="5" spans="1:53" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="K2" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:37" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+    </row>
+    <row r="4" spans="1:37" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
+      <c r="B4" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="112"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+    </row>
+    <row r="2" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+    </row>
+    <row r="3" spans="1:34" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+    </row>
+    <row r="4" spans="1:34" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="118"/>
+      <c r="B4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH4" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y5" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z5" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB5" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC5" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD5" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE5" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF5" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG5" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH5" s="54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5066,74 +7446,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5183,81 +7563,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="64.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1总" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="218">
   <si>
     <t>支出项目</t>
   </si>
@@ -46,258 +46,232 @@
     <t>比率%</t>
   </si>
   <si>
-    <t>t.kmbm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>t.a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县区名称</t>
+  </si>
+  <si>
+    <t>累计完成数</t>
+  </si>
+  <si>
+    <t>2020年县区上报预期目标</t>
+  </si>
+  <si>
+    <t>完成预期目标%</t>
+  </si>
+  <si>
+    <t>同比增长%</t>
+  </si>
+  <si>
+    <t>税收占总收入比重</t>
+  </si>
+  <si>
+    <t>t.a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a6}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_13tongbao t.a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 </t>
+  </si>
+  <si>
+    <t>单位:万元、%</t>
+  </si>
+  <si>
+    <t>收入项目</t>
+  </si>
+  <si>
+    <t>本月完成</t>
+  </si>
+  <si>
+    <t>累计完成</t>
+  </si>
+  <si>
+    <t>去年同期累计完成</t>
+  </si>
+  <si>
+    <t>累计完成增减额</t>
+  </si>
+  <si>
+    <t>累计增幅%</t>
+  </si>
+  <si>
+    <t>{{$fe:list_1zong t.kmmc_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a6}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抚州市财政收入分县区执行情况及排名表（2020年5月）</t>
-  </si>
-  <si>
-    <t>县区名称</t>
-  </si>
-  <si>
-    <t>累计完成数</t>
-  </si>
-  <si>
-    <t>2020年县区上报预期目标</t>
-  </si>
-  <si>
-    <t>完成预期目标%</t>
-  </si>
-  <si>
-    <t>同比增长%</t>
-  </si>
-  <si>
-    <t>税收占总收入比重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.kmbm_zc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.kmmc_zc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.zca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.zca2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.zca3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.zca4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.zca5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表二：抚州市2020年1-5月财政总收入分县（区）分级次完成情况表</t>
+  </si>
+  <si>
+    <t>财政总收入完成情况</t>
+  </si>
+  <si>
+    <t>收入分级次完成情况</t>
+  </si>
+  <si>
+    <t>2020年市、县人大通过的预期目标</t>
+  </si>
+  <si>
+    <t>累计数较上年同期增减</t>
+  </si>
+  <si>
+    <t>公共财政预算收入</t>
+  </si>
+  <si>
+    <t>中央收入</t>
+  </si>
+  <si>
+    <t>省级收入</t>
+  </si>
+  <si>
+    <t>上年同期数</t>
+  </si>
+  <si>
+    <t>增减额</t>
+  </si>
+  <si>
+    <t>t.a6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a6}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:list_11min t.kmmc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:list_13tongbao t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表十二：抚州市2020年1-5月民生工程支出表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                 </t>
-  </si>
-  <si>
-    <t>单位:万元、%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表一：抚州市2020年1-5月政府预算收支分项目执行情况表                  </t>
-  </si>
-  <si>
-    <t>收入项目</t>
-  </si>
-  <si>
-    <t>本月完成</t>
-  </si>
-  <si>
-    <t>累计完成</t>
-  </si>
-  <si>
-    <t>去年同期累计完成</t>
-  </si>
-  <si>
-    <t>累计完成增减额</t>
-  </si>
-  <si>
-    <t>累计增幅%</t>
-  </si>
-  <si>
-    <t>{{$fe:list_1zong t.kmmc_in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.kmbm_zc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.kmmc_zc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.zca1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.zca2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.zca3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.zca4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.zca5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表二：抚州市2020年1-5月财政总收入分县（区）分级次完成情况表</t>
-  </si>
-  <si>
-    <t>财政总收入完成情况</t>
-  </si>
-  <si>
-    <t>收入分级次完成情况</t>
-  </si>
-  <si>
-    <t>2020年市、县人大通过的预期目标</t>
-  </si>
-  <si>
-    <t>累计数较上年同期增减</t>
-  </si>
-  <si>
-    <t>公共财政预算收入</t>
-  </si>
-  <si>
-    <t>中央收入</t>
-  </si>
-  <si>
-    <t>省级收入</t>
-  </si>
-  <si>
-    <t>上年同期数</t>
-  </si>
-  <si>
-    <t>增减额</t>
-  </si>
-  <si>
-    <t>t.a6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.a5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a16}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{{$fe:list_2ji t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>政府性基金收入</t>
@@ -315,228 +289,221 @@
     <t>去年同期</t>
   </si>
   <si>
-    <t>表四:抚州市2020年1-5月基金收支情况表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{$fe:list_4jijin t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a13}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{{$fe:list_3bu t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a19}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区县名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2020年县区
 上报预期目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同比增长%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成预期目标%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本年累计完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同比增长%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>税务部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本月完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>较上年同期增减</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财政部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位：万元、%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表三：抚州市2020年1-5月财政总收入分县（区）分部门完成情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a44</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a51}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{{$fe:list_5shui t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注：其他税收税含上划中央其他税收（营业税）、上划省级其他税收（营业税)</t>
@@ -602,27 +569,24 @@
     <t>增长%</t>
   </si>
   <si>
-    <t>表五：抚州市2020年1-5月税收收入完成情况表</t>
-  </si>
-  <si>
     <t>t.a19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
@@ -656,30 +620,27 @@
   </si>
   <si>
     <t>t.a24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表六：抚州市2020年1-5月财政部门收入完成情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位:万元、%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{{$fe:list_6cai t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>税收占比目标%</t>
@@ -706,11 +667,8 @@
     <t>占总收入比重%</t>
   </si>
   <si>
-    <t>表七:抚州市2020年1-5月税收收入占财政总收入比重情况表</t>
-  </si>
-  <si>
     <t>{{$fe:list_7shuibi t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共财政预算支出</t>
@@ -746,39 +704,112 @@
     <t>农林水事务</t>
   </si>
   <si>
-    <t>表十:抚州市2020年1-5月公共预算支出分县（区）执行情况表</t>
-  </si>
-  <si>
     <t>{{$fe:list_10zhichu t.a1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t.a34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list_11min t.a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.a8}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成预期目标%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表一：抚州市{{year}}年1-{{month}}月政府预算收支分项目执行情况表                  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表二：抚州市{{year}}年1-{{month}}月财政总收入分县（区）分级次完成情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表三：抚州市{{year}}年1-{{month}}月财政总收入分县（区）分部门完成情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表四:抚州市{{year}}年1-{{month}}月基金收支情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表五：抚州市{{year}}年1-{{month}}月税收收入完成情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表六：抚州市{{year}}年1-{{month}}月财政部门收入完成情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表七:抚州市{{year}}年1-{{month}}月税收收入占财政总收入比重情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表十:抚州市{{year}}年1-{{month}}月公共预算支出分县（区）执行情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表十二：抚州市{{year}}年1-{{month}}月民生工程支出表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚州市财政收入分县区执行情况及排名表（{{year}}年{{month}}月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,20 +823,12 @@
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1080,364 +1103,370 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,7 +1880,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1866,50 +1895,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="A1" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+        <v>23</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>1</v>
@@ -1918,60 +1947,60 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="K4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="M4" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2008,7 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1988,75 +2017,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="64.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2066,7 +2095,7 @@
   <dimension ref="A1:XEO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2077,3248 +2106,3248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="A1" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
       <c r="AG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="YG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="YW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ZM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AAC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AAS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ABI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ABY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ACO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ADE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ADU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AEK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AFA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AFQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AGG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AGW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AHM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AIC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AIS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AJI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AJY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AKO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ALE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ALU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AMK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ANA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ANQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AOG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AOW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="APM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AQC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AQS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ARI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ARY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ASO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ATE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ATU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AUK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AVA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AVQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AWG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AWW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AXM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AYC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AYS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AZI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AZY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BAO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BBE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BBU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BCK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BDA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BDQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BEG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BEW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BFM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BGC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BGS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BHI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BHY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BIO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BJE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BJU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BKK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BLA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BLQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BMG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BMW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BNM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BOC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BOS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BPI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BPY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BQO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BRE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BRU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BSK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BTA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BTQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BUG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BUW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BVM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BWC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BWS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BXI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BXY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BYO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BZE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BZU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CAK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CBA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CBQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CCG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CCW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CDM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CEC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CES1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CFI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CFY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CGO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CHE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CHU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CIK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CJA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CJQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CKG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CKW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CLM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CMC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CMS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CNI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CNY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="COO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CPE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CPU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CQK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CRA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CRQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CSG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CSW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CTM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CUC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CUS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CVI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CVY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CWO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CXE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CXU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CYK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CZA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CZQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DAG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DAW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DBM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DCC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DCS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DDI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DDY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DEO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DFE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DFU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DGK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DHA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DHQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DIG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DIW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DJM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DKC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DKS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DLI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DLY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DMO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DNE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DNU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DOK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DPA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DPQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DQG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DQW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DRM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DSC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DSS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DTI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DTY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DUO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DVE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DVU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DWK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DXA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DXQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DYG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DYW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="DZM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EAC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EAS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EBI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EBY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ECO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EDE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EDU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EEK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EFA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EFQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EGG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EGW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EHM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EIC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EIS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EJI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EJY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EKO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ELE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ELU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EMK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ENA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ENQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EOG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EOW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EPM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EQC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EQS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ERI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ERY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ESO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ETE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ETU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EUK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EVA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EVQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EWG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EWW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EXM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EYC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EYS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EZI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="EZY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FAO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FBE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FBU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FCK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FDA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FDQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FEG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FEW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FFM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FGC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FGS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FHI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FHY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FIO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FJE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FJU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FKK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FLA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FLQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FMG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FMW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FNM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FOC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FOS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FPI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FPY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FQO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FRE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FRU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FSK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FTA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FTQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FUG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FUW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FVM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FWC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FWS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FXI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FXY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FYO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FZE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="FZU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GAK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GBA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GBQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GCG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GCW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GDM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GEC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GES1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GFI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GFY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GGO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GHE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GHU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GIK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GJA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GJQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GKG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GKW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GLM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GMC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GMS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GNI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GNY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GOO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GPE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GPU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GQK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GRA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GRQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GSG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GSW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GTM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GUC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GUS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GVI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GVY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GWO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GXE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GXU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GYK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GZA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="GZQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HAG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HAW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HBM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HCC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HCS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HDI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HDY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HEO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HFE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HFU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HGK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HHA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HHQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HIG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HIW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HJM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HKC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HKS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HLI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HLY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HMO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HNE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HNU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HOK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HPA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HPQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HQG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HQW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HRM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HSC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HSS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HTI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HTY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HUO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HVE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HVU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HWK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HXA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HXQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HYG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HYW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="HZM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IAC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IAS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IBI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IBY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ICO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IDE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IDU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IEK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IFA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IFQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IGG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IGW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IHM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IIC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IIS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IJI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IJY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IKO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ILE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ILU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IMK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="INA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="INQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IOG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IOW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IPM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IQC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IQS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IRI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IRY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ISO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ITE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ITU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IUK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IVA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IVQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IWG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IWW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IXM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IYC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IYS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IZI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="IZY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JAO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JBE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JBU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JCK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JDA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JDQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JEG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JEW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JFM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JGC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JGS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JHI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JHY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JIO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JJE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JJU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JKK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JLA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JLQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JMG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JMW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JNM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JOC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JOS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JPI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JPY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JQO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JRE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JRU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JSK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JTA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JTQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JUG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JUW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JVM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JWC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JWS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JXI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JXY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JYO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JZE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="JZU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KAK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KBA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KBQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KCG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KCW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KDM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KEC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KES1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KFI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KFY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KGO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KHE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KHU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KIK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KJA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KJQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KKG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KKW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KLM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KMC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KMS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KNI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KNY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KOO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KPE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KPU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KQK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KRA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KRQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KSG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KSW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KTM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KUC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KUS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KVI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KVY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KWO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KXE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KXU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KYK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KZA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="KZQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LAG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LAW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LBM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LCC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LCS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LDI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LDY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LEO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LFE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LFU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LGK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LHA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LHQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LIG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LIW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LJM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LKC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LKS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LLI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LLY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LMO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LNE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LNU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LOK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LPA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LPQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LQG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LQW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LRM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LSC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LSS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LTI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LTY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LUO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LVE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LVU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LWK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LXA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LXQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LYG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LYW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="LZM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MAC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MAS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MBI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MBY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MCO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MDE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MDU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MEK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MFA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MFQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MGG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MGW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MHM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MIC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MIS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MJI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MJY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MKO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MLE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MLU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MMK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MNA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MNQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MOG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MOW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MPM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MQC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MQS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MRI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MRY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MSO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MTE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MTU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MUK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MVA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MVQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MWG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MWW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MXM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MYC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MYS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MZI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="MZY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NAO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NBE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NBU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NCK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NDA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NDQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NEG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NEW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NFM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NGC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NGS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NHI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NHY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NIO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NJE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NJU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NKK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NLA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NLQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NMG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NMW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NNM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NOC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NOS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NPI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NPY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NQO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NRE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NRU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NSK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NTA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NTQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NUG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NUW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NVM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NWC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NWS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NXI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NXY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NYO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NZE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NZU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OAK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OBA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OBQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OCG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OCW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ODM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OEC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OES1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OFI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OFY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OGO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OHE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OHU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OIK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OJA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OJQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OKG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OKW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OLM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OMC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OMS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ONI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ONY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OOO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OPE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OPU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OQK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ORA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ORQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OSG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OSW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OTM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OUC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OUS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OVI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OVY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OWO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OXE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OXU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OYK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OZA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="OZQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PAG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PAW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PBM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PCC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PCS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PDI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PDY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PEO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PFE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PFU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PGK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PHA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PHQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PIG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PIW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PJM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PKC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PKS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PLI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PLY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PMO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PNE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PNU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="POK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PPA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PPQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PQG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PQW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PRM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PSC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PSS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PTI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PTY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PUO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PVE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PVU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PWK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PXA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PXQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PYG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PYW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="PZM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QAC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QAS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QBI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QBY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QCO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QDE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QDU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QEK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QFA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QFQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QGG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QGW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QHM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QIC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QIS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QJI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QJY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QKO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QLE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QLU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QMK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QNA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QNQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QOG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QOW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QPM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QQC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QQS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QRI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QRY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QSO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QTE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QTU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QUK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QVA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QVQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QWG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QWW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QXM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QYC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QYS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QZI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="QZY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RAO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RBE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RBU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RCK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RDA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RDQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="REG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="REW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RFM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RGC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RGS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RHI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RHY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RIO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RJE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RJU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RKK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RLA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RLQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RMG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RMW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RNM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ROC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ROS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RPI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RPY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RQO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RRE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RRU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RSK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RTA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RTQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RUG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RUW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RVM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RWC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RWS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RXI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RXY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RYO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RZE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="RZU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SAK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SBA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SBQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SCG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SCW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SDM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SEC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SES1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SFI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SFY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SGO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SHE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SHU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SIK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SJA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SJQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SKG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SKW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SLM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SMC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SMS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SNI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SNY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SOO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SPE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SPU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SQK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SRA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SRQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SSG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SSW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="STM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SUC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SUS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SVI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SVY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SWO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SXE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SXU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SYK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SZA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="SZQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TAG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TAW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TBM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TCC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TCS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TDI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TDY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TEO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TFE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TFU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TGK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="THA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="THQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TIG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TIW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TJM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TKC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TKS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TLI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TLY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TMO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TNE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TNU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TOK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TPA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TPQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TQG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TQW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TRM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TSC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TSS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TTI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TTY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TUO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TVE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TVU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TWK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TXA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TXQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TYG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TYW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="TZM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UAC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UAS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UBI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UBY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UCO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UDE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UDU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UEK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UFA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UFQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UGG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UGW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UHM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UIC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UIS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UJI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UJY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UKO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ULE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="ULU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UMK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UNA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UNQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UOG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UOW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UPM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UQC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UQS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="URI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="URY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="USO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UTE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UTU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UUK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UVA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UVQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UWG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UWW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UXM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UYC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UYS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UZI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="UZY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VAO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VBE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VBU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VCK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VDA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VDQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VEG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VEW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VFM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VGC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VGS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VHI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VHY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VIO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VJE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VJU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VKK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VLA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VLQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VMG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VMW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VNM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VOC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VOS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VPI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VPY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VQO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VRE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VRU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VSK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VTA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VTQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VUG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VUW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VVM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VWC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VWS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VXI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VXY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VYO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VZE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="VZU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WAK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WBA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WBQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WCG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WCW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WDM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WEC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WES1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WFI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WFY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WGO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WHE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WHU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WIK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WJA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WJQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WKG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WKW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WLM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WMC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WMS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WNI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WNY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WOO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WPE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WPU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WQK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WRA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WRQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WSG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WSW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WTM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WUC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WUS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WVI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WVY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WWO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WXE1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WXU1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WYK1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WZA1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="WZQ1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XAG1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XAW1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XBM1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XCC1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XCS1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XDI1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XDY1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="XEO1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" x14ac:dyDescent="0.25">
-      <c r="J2" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="J2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
+      <c r="A3" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5365,7 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="J2:P2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5346,13 +5375,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="23" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
@@ -5365,7 +5394,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -5389,242 +5418,250 @@
     <row r="2" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
       <c r="P2" s="79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="79"/>
       <c r="R2" s="79"/>
       <c r="S2" s="79"/>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="A3" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:19" s="17" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
     </row>
     <row r="5" spans="1:19" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
     </row>
     <row r="6" spans="1:19" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="75"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="81"/>
+      <c r="H6" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="81"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="75"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="81"/>
+      <c r="P6" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="81"/>
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" s="17" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="75"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="77"/>
+        <v>85</v>
+      </c>
+      <c r="H7" s="85"/>
       <c r="I7" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="81"/>
-      <c r="M7" s="75"/>
+        <v>85</v>
+      </c>
+      <c r="L7" s="82"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="82"/>
+        <v>85</v>
+      </c>
+      <c r="P7" s="83"/>
       <c r="Q7" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="19" t="s">
+    <row r="8" spans="1:19" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="C8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="20" t="s">
+      <c r="D8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="F8" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="N8" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="O8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>89</v>
+      <c r="P8" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="L3:S3"/>
@@ -5641,16 +5678,8 @@
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5661,7 +5690,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5681,146 +5710,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
+      <c r="A1" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="85" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:17" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="84"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5839,7 +5868,7 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5850,7 +5879,7 @@
   <dimension ref="A1:BZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5862,26 +5891,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
+      <c r="A1" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
@@ -5988,12 +6017,12 @@
       <c r="AP2" s="41"/>
       <c r="AQ2" s="42"/>
       <c r="AR2" s="42"/>
-      <c r="AS2" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
+      <c r="AS2" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
       <c r="AW2" s="42"/>
       <c r="AX2" s="42"/>
       <c r="AY2" s="42"/>
@@ -6027,91 +6056,91 @@
     </row>
     <row r="3" spans="1:78" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="101" t="s">
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="101" t="s">
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="95" t="s">
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95" t="s">
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95" t="s">
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95" t="s">
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95" t="s">
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="100" t="s">
         <v>146</v>
-      </c>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="100" t="s">
-        <v>155</v>
       </c>
       <c r="AX3" s="100"/>
       <c r="AY3" s="100"/>
@@ -6129,153 +6158,153 @@
     </row>
     <row r="4" spans="1:78" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+        <v>147</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="W4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Z4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AD4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AF4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AI4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AJ4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AM4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AN4" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AO4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AP4" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ4" s="30" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AR4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AS4" s="31" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AT4" s="30" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AU4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AV4" s="31" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AW4" s="30" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AX4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AY4" s="31" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AZ4" s="32"/>
       <c r="BA4" s="32"/>
@@ -6291,162 +6320,162 @@
     </row>
     <row r="5" spans="1:78" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="AC5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="AD5" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="AE5" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="AF5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="AG5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="AH5" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" s="24" t="s">
+      <c r="AI5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AJ5" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AK5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AL5" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AM5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="AE5" s="24" t="s">
+      <c r="AN5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AO5" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AG5" s="24" t="s">
+      <c r="AP5" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="AH5" s="24" t="s">
+      <c r="AQ5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="AI5" s="24" t="s">
+      <c r="AR5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="AJ5" s="24" t="s">
+      <c r="AS5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AK5" s="24" t="s">
+      <c r="AT5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="AL5" s="24" t="s">
+      <c r="AU5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AV5" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AN5" s="24" t="s">
+      <c r="AW5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="AO5" s="24" t="s">
+      <c r="AX5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AP5" s="24" t="s">
+      <c r="AY5" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR5" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU5" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV5" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW5" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX5" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY5" s="24" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B6" s="99"/>
       <c r="C6" s="99"/>
@@ -6498,6 +6527,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
     <mergeCell ref="A6:AV6"/>
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="B3:B4"/>
@@ -6514,13 +6548,8 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6532,7 +6561,7 @@
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6541,96 +6570,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
+      <c r="A1" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="V2" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="V2" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="W3" s="107"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="108"/>
+        <v>155</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="111"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="112"/>
       <c r="AB3" s="47"/>
       <c r="AC3" s="47"/>
       <c r="AD3" s="47"/>
@@ -6660,81 +6689,81 @@
     </row>
     <row r="4" spans="1:53" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="105"/>
+        <v>164</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="W4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Y4" s="49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Z4" s="30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AB4" s="50"/>
       <c r="AC4" s="50"/>
@@ -6765,85 +6794,85 @@
     </row>
     <row r="5" spans="1:53" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="X5" s="25" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6890,7 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6872,7 +6901,7 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6920,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -6907,39 +6936,39 @@
       <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K2" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
+      <c r="K2" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:37" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="109" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="105" t="s">
-        <v>185</v>
       </c>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
@@ -6967,35 +6996,35 @@
       <c r="AK3" s="50"/>
     </row>
     <row r="4" spans="1:37" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="52" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="114"/>
+        <v>178</v>
+      </c>
+      <c r="G4" s="116"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="52" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
+        <v>178</v>
+      </c>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
@@ -7023,43 +7052,43 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7074,7 +7103,7 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:L4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7083,8 +7112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7094,7 +7123,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -7131,278 +7160,278 @@
       <c r="AH1" s="80"/>
     </row>
     <row r="2" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD2" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
+      <c r="AD2" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
     </row>
     <row r="3" spans="1:34" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
+      <c r="A3" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
     </row>
     <row r="4" spans="1:34" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="U4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="V4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AB4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF4" s="53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AG4" s="53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH4" s="53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="P5" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="T5" s="54" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="V5" s="54" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="W5" s="54" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="X5" s="54" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="54" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Z5" s="54" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AB5" s="54" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AC5" s="54" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AD5" s="54" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AE5" s="54" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AF5" s="54" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="AG5" s="54" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AH5" s="54" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7422,7 +7451,7 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7433,12 +7462,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
@@ -7446,74 +7475,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="A1" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="89" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7523,28 +7552,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7559,7 +7588,7 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1总" sheetId="3" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
@@ -569,7 +569,7 @@
     <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,29 +679,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -713,15 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +707,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,6 +756,21 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,34 +789,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,9 +804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,14 +814,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,25 +846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +876,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +924,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,49 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,73 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,17 +1147,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1178,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,35 +1221,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1251,154 +1235,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1854,7 +1847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7620" y="409575"/>
-          <a:ext cx="1760220" cy="777240"/>
+          <a:ext cx="1735455" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6856,13 +6849,13 @@
   <sheetPr/>
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="26.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:27">
@@ -7760,14 +7753,14 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="24.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="8" max="8" width="25.8833333333333" customWidth="1"/>

--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1总" sheetId="3" r:id="rId1"/>
@@ -16,14 +16,15 @@
     <sheet name="07税比" sheetId="11" r:id="rId7"/>
     <sheet name="10支出" sheetId="12" r:id="rId8"/>
     <sheet name="11民生" sheetId="1" r:id="rId9"/>
-    <sheet name="13通报" sheetId="2" r:id="rId10"/>
+    <sheet name="12省" sheetId="13" r:id="rId10"/>
+    <sheet name="13通报" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="185">
   <si>
     <t xml:space="preserve">表一：抚州市{{year}}年1-{{month}}月政府预算收支分项目执行情况表                  </t>
   </si>
@@ -537,6 +538,33 @@
   </si>
   <si>
     <t>t.a8}}</t>
+  </si>
+  <si>
+    <t>江西省财政收入分设区市执行情况表（{{year}}年{{month}}月）</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>一般公共预算收入</t>
+  </si>
+  <si>
+    <t>增减％</t>
+  </si>
+  <si>
+    <t>其中：税收收入</t>
+  </si>
+  <si>
+    <t>非税收入</t>
+  </si>
+  <si>
+    <t>增减%</t>
+  </si>
+  <si>
+    <t>税比%</t>
+  </si>
+  <si>
+    <t>{{$fe:list_12sheng t.a1</t>
   </si>
   <si>
     <t>抚州市财政收入分县区执行情况及排名表（{{year}}年{{month}}月）</t>
@@ -558,18 +586,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;￥&quot;* _-#,##0;&quot;￥&quot;* \-#,##0;&quot;￥&quot;* _-&quot;-&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +615,19 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -676,33 +718,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,16 +741,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,15 +757,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,38 +785,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,9 +808,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,13 +866,26 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -846,19 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,43 +913,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +949,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,85 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,6 +1204,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1158,11 +1237,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,41 +1267,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,21 +1294,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,358 +1317,387 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,63 +1706,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1687,30 +1771,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1741,26 +1825,29 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="49"/>
+    <cellStyle name="常规_Sheet2" xfId="30"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="货币_0801分析_各地排位_1" xfId="40"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="货币_0801分析" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2177,71 +2264,71 @@
     <col min="13" max="13" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="113" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A1" s="114" t="s">
+    <row r="1" s="121" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
-    <row r="3" s="113" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="121" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2270,19 +2357,19 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2299,10 +2386,197 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="13:13">
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2317,7 +2591,7 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2330,7 +2604,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>149</v>
@@ -2342,12 +2616,12 @@
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -2362,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2391,24 +2665,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:16369">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
       <c r="AG1" t="s">
         <v>25</v>
       </c>
@@ -5477,111 +5751,111 @@
       </c>
     </row>
     <row r="2" spans="10:16">
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A3" s="74" t="s">
+    <row r="3" s="23" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
+      <c r="A3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="101" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="110"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="118"/>
     </row>
-    <row r="4" s="14" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A4" s="74"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" s="23" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
+      <c r="A4" s="82"/>
+      <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="81" t="s">
+      <c r="F4" s="113"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112" t="s">
+      <c r="I4" s="89"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112" t="s">
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
     </row>
-    <row r="5" s="14" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A5" s="74"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108" t="s">
+    <row r="5" s="23" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
+      <c r="A5" s="82"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="102" t="s">
+      <c r="O5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="32" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5610,28 +5884,28 @@
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5667,7 +5941,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="16.8833333333333" style="88" customWidth="1"/>
+    <col min="1" max="1" width="16.8833333333333" style="96" customWidth="1"/>
     <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="9.88333333333333" customWidth="1"/>
     <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
@@ -5679,262 +5953,262 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:19">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
-    <row r="2" s="86" customFormat="1" ht="12" spans="1:19">
-      <c r="A2" s="89"/>
-      <c r="P2" s="96" t="s">
+    <row r="2" s="94" customFormat="1" ht="12" spans="1:19">
+      <c r="A2" s="97"/>
+      <c r="P2" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
     </row>
-    <row r="3" s="86" customFormat="1" ht="12" spans="1:19">
-      <c r="A3" s="90" t="s">
+    <row r="3" s="94" customFormat="1" ht="12" spans="1:19">
+      <c r="A3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
     </row>
-    <row r="4" s="86" customFormat="1" ht="21.6" customHeight="1" spans="1:19">
-      <c r="A4" s="91"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
+    <row r="4" s="94" customFormat="1" ht="21.6" customHeight="1" spans="1:19">
+      <c r="A4" s="99"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
     </row>
-    <row r="5" s="86" customFormat="1" ht="14.4" customHeight="1" spans="1:19">
-      <c r="A5" s="91"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="92" t="s">
+    <row r="5" s="94" customFormat="1" ht="14.4" customHeight="1" spans="1:19">
+      <c r="A5" s="99"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="92" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22" t="s">
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
     </row>
-    <row r="6" s="86" customFormat="1" ht="12" spans="1:19">
-      <c r="A6" s="91"/>
-      <c r="B6" s="22" t="s">
+    <row r="6" s="94" customFormat="1" ht="12" spans="1:19">
+      <c r="A6" s="99"/>
+      <c r="B6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="90" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="22" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="98" t="s">
+      <c r="O6" s="31"/>
+      <c r="P6" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="97"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="105"/>
     </row>
-    <row r="7" s="86" customFormat="1" ht="57.6" customHeight="1" spans="1:19">
-      <c r="A7" s="93"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+    <row r="7" s="94" customFormat="1" ht="57.6" customHeight="1" spans="1:19">
+      <c r="A7" s="101"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
+      <c r="L7" s="100"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="22" t="s">
+      <c r="P7" s="106"/>
+      <c r="Q7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="87" customFormat="1" ht="24" customHeight="1" spans="1:19">
-      <c r="A8" s="94" t="s">
+    <row r="8" s="95" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A8" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="99" t="s">
+      <c r="L8" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="99" t="s">
+      <c r="N8" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="99" t="s">
+      <c r="O8" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="99" t="s">
+      <c r="P8" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="99" t="s">
+      <c r="Q8" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="99" t="s">
+      <c r="R8" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="99" t="s">
+      <c r="S8" s="107" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5996,105 +6270,105 @@
     <col min="13" max="13" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="36" customHeight="1" spans="1:17">
-      <c r="A1" s="73" t="s">
+    <row r="1" s="23" customFormat="1" ht="36" customHeight="1" spans="1:17">
+      <c r="A1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
-    <row r="2" s="14" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A2" s="74" t="s">
+    <row r="2" s="23" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="75" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A3" s="74"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" s="23" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A3" s="82"/>
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="77" t="s">
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
     </row>
-    <row r="4" s="14" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A4" s="74"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="28" t="s">
+    <row r="4" s="23" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A4" s="82"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="82" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6123,19 +6397,19 @@
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6178,640 +6452,640 @@
     <col min="13" max="13" width="12.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="1" ht="28.5" customHeight="1" spans="1:78">
-      <c r="A1" s="39" t="s">
+    <row r="1" s="56" customFormat="1" ht="28.5" customHeight="1" spans="1:78">
+      <c r="A1" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70"/>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="70"/>
-      <c r="BW1" s="70"/>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70"/>
-      <c r="BZ1" s="70"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="78"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="78"/>
+      <c r="BU1" s="78"/>
+      <c r="BV1" s="78"/>
+      <c r="BW1" s="78"/>
+      <c r="BX1" s="78"/>
+      <c r="BY1" s="78"/>
+      <c r="BZ1" s="78"/>
     </row>
-    <row r="2" s="48" customFormat="1" ht="23.25" customHeight="1" spans="1:78">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="63" t="s">
+    <row r="2" s="56" customFormat="1" ht="23.25" customHeight="1" spans="1:78">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
     </row>
-    <row r="3" s="48" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
-      <c r="A3" s="52" t="s">
+    <row r="3" s="56" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
+      <c r="A3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="53" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53" t="s">
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53" t="s">
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53" t="s">
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53" t="s">
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53" t="s">
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="64" t="s">
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="69" t="s">
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="70"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="70"/>
-      <c r="BJ3" s="70"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
     </row>
-    <row r="4" s="49" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
-      <c r="A4" s="57" t="s">
+    <row r="4" s="57" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
+      <c r="A4" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="44" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="T4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="U4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="V4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="X4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="Y4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AA4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="44" t="s">
+      <c r="AB4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="44" t="s">
+      <c r="AC4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AD4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="44" t="s">
+      <c r="AE4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="44" t="s">
+      <c r="AF4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AG4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AH4" s="44" t="s">
+      <c r="AH4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="44" t="s">
+      <c r="AI4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AJ4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="44" t="s">
+      <c r="AK4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="44" t="s">
+      <c r="AL4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AM4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="44" t="s">
+      <c r="AO4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AP4" s="53" t="s">
+      <c r="AP4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="AQ4" s="44" t="s">
+      <c r="AQ4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="AR4" s="44" t="s">
+      <c r="AR4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AS4" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AT4" s="44" t="s">
+      <c r="AT4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="44" t="s">
+      <c r="AU4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="AV4" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AW4" s="44" t="s">
+      <c r="AW4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="AX4" s="44" t="s">
+      <c r="AX4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="AY4" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="79"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
     </row>
-    <row r="5" s="15" customFormat="1" ht="23.25" customHeight="1" spans="1:51">
-      <c r="A5" s="21" t="s">
+    <row r="5" s="24" customFormat="1" ht="23.25" customHeight="1" spans="1:51">
+      <c r="A5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" s="22" t="s">
+      <c r="AB5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AC5" s="22" t="s">
+      <c r="AC5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="22" t="s">
+      <c r="AD5" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" s="22" t="s">
+      <c r="AF5" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="22" t="s">
+      <c r="AG5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AH5" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AI5" s="22" t="s">
+      <c r="AI5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="AJ5" s="22" t="s">
+      <c r="AJ5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AK5" s="22" t="s">
+      <c r="AK5" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="AL5" s="22" t="s">
+      <c r="AL5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AM5" s="22" t="s">
+      <c r="AM5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="AN5" s="22" t="s">
+      <c r="AN5" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AO5" s="22" t="s">
+      <c r="AO5" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AP5" s="22" t="s">
+      <c r="AP5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AQ5" s="22" t="s">
+      <c r="AQ5" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AR5" s="22" t="s">
+      <c r="AR5" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" s="22" t="s">
+      <c r="AS5" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AT5" s="22" t="s">
+      <c r="AT5" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AU5" s="22" t="s">
+      <c r="AU5" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AV5" s="22" t="s">
+      <c r="AV5" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AW5" s="22" t="s">
+      <c r="AW5" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AX5" s="22" t="s">
+      <c r="AX5" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="AY5" s="22" t="s">
+      <c r="AY5" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="1:48">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="58"/>
-      <c r="AS6" s="58"/>
-      <c r="AT6" s="58"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6849,7 +7123,7 @@
   <sheetPr/>
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
@@ -6859,308 +7133,308 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:27">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
     </row>
     <row r="2" spans="22:27">
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="27" customHeight="1" spans="1:53">
-      <c r="A3" s="40" t="s">
+    <row r="3" s="23" customFormat="1" ht="27" customHeight="1" spans="1:53">
+      <c r="A3" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="45" t="s">
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="28" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="29" t="s">
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="29" t="s">
+      <c r="W3" s="39"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
     </row>
-    <row r="4" s="27" customFormat="1" ht="35.25" customHeight="1" spans="1:53">
-      <c r="A4" s="42" t="s">
+    <row r="4" s="36" customFormat="1" ht="35.25" customHeight="1" spans="1:53">
+      <c r="A4" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="T4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
     </row>
-    <row r="5" s="15" customFormat="1" ht="24" customHeight="1" spans="1:27">
-      <c r="A5" s="21" t="s">
+    <row r="5" s="24" customFormat="1" ht="24" customHeight="1" spans="1:27">
+      <c r="A5" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="31" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7191,7 +7465,7 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -7209,136 +7483,136 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="11:13">
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
-    <row r="3" s="27" customFormat="1" ht="42" customHeight="1" spans="1:37">
-      <c r="A3" s="28" t="s">
+    <row r="3" s="36" customFormat="1" ht="42" customHeight="1" spans="1:37">
+      <c r="A3" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
     </row>
-    <row r="4" s="27" customFormat="1" ht="42" customHeight="1" spans="1:37">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+    <row r="4" s="36" customFormat="1" ht="42" customHeight="1" spans="1:37">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="37" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="28" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
@@ -7365,19 +7639,19 @@
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7413,315 +7687,315 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:34">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
     </row>
     <row r="2" ht="14.4" customHeight="1" spans="30:34">
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="24" customHeight="1" spans="1:34">
-      <c r="A3" s="16" t="s">
+    <row r="3" s="23" customFormat="1" ht="24" customHeight="1" spans="1:34">
+      <c r="A3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="23" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="25" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25" t="s">
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25" t="s">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="23" t="s">
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
     </row>
-    <row r="4" s="14" customFormat="1" ht="24" customHeight="1" spans="1:34">
-      <c r="A4" s="16"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" s="23" customFormat="1" ht="24" customHeight="1" spans="1:34">
+      <c r="A4" s="25"/>
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="15" customFormat="1" ht="24" customHeight="1" spans="1:34">
-      <c r="A5" s="21" t="s">
+    <row r="5" s="24" customFormat="1" ht="24" customHeight="1" spans="1:34">
+      <c r="A5" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" s="22" t="s">
+      <c r="AB5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AC5" s="22" t="s">
+      <c r="AC5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="22" t="s">
+      <c r="AD5" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" s="22" t="s">
+      <c r="AF5" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="22" t="s">
+      <c r="AG5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AH5" s="31" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7767,78 +8041,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="17" t="s">
         <v>168</v>
       </c>
     </row>

--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,27 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="1总" sheetId="3" r:id="rId1"/>
+    <sheet name="01总" sheetId="3" r:id="rId1"/>
     <sheet name="02级" sheetId="4" r:id="rId2"/>
     <sheet name="03部" sheetId="8" r:id="rId3"/>
     <sheet name="04基金分级收支" sheetId="5" r:id="rId4"/>
     <sheet name="05税" sheetId="9" r:id="rId5"/>
     <sheet name="06财" sheetId="10" r:id="rId6"/>
     <sheet name="07税比" sheetId="11" r:id="rId7"/>
-    <sheet name="10支出" sheetId="12" r:id="rId8"/>
-    <sheet name="11民生" sheetId="1" r:id="rId9"/>
-    <sheet name="12省" sheetId="13" r:id="rId10"/>
-    <sheet name="13通报" sheetId="2" r:id="rId11"/>
+    <sheet name="08产业" sheetId="15" r:id="rId8"/>
+    <sheet name="09分县区重点税收" sheetId="14" r:id="rId9"/>
+    <sheet name="10支出" sheetId="12" r:id="rId10"/>
+    <sheet name="11民生" sheetId="1" r:id="rId11"/>
+    <sheet name="12省" sheetId="13" r:id="rId12"/>
+    <sheet name="13通报" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="208">
   <si>
     <t xml:space="preserve">表一：抚州市{{year}}年1-{{month}}月政府预算收支分项目执行情况表                  </t>
   </si>
@@ -484,6 +486,75 @@
   </si>
   <si>
     <t>{{$fe:list_7shuibi t.a1</t>
+  </si>
+  <si>
+    <t>表八：抚州市{{year}}年1-{{month}}月分行业税收完成情况表</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>全市合计</t>
+  </si>
+  <si>
+    <t>税收收入</t>
+  </si>
+  <si>
+    <t>财口收入</t>
+  </si>
+  <si>
+    <t>上年同期</t>
+  </si>
+  <si>
+    <t>增收额</t>
+  </si>
+  <si>
+    <t>对总收入增收贡献率%</t>
+  </si>
+  <si>
+    <t>行业占总收入比重%</t>
+  </si>
+  <si>
+    <t>行业占税收比重%</t>
+  </si>
+  <si>
+    <t>较上年增减收金额</t>
+  </si>
+  <si>
+    <t>{{$fe:list_8chanye t.a1</t>
+  </si>
+  <si>
+    <t>表九：抚州市{{year}}年1-{{month}}月份重点行业税收分县区执行情况表</t>
+  </si>
+  <si>
+    <t>金额单位：万元</t>
+  </si>
+  <si>
+    <t>工业税收</t>
+  </si>
+  <si>
+    <t>建筑安装业税收</t>
+  </si>
+  <si>
+    <t>交通运输业税收</t>
+  </si>
+  <si>
+    <t>房地产业税收</t>
+  </si>
+  <si>
+    <t>其中：再生资源企业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本年累计完成</t>
+  </si>
+  <si>
+    <t>{{$fe:list_9zdtax t.a1</t>
+  </si>
+  <si>
+    <t>备注：税务提供的分行业数据统计口径为月底前一天数据，与税收实际完成数存在一定差异。</t>
+  </si>
+  <si>
+    <t>·</t>
   </si>
   <si>
     <t>表十:抚州市{{year}}年1-{{month}}月公共预算支出分县（区）执行情况表</t>
@@ -586,19 +657,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="&quot;￥&quot;* _-#,##0;&quot;￥&quot;* \-#,##0;&quot;￥&quot;* _-&quot;-&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,14 +732,33 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -693,17 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -718,53 +798,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,8 +818,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,6 +859,53 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,8 +924,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -817,61 +940,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -901,7 +980,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,25 +1124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,67 +1148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,78 +1160,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1193,6 +1272,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1205,8 +1304,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,28 +1340,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,22 +1374,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,21 +1382,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,160 +1416,158 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,13 +1577,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1496,32 +1593,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,162 +1639,251 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1706,10 +1892,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1750,19 +1936,19 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1771,30 +1957,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1841,13 +2027,14 @@
     <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="货币_0801分析" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="52"/>
+    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="货币_0801分析" xfId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="53"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1960,6 +2147,50 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="447040"/>
+          <a:ext cx="2066925" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1968,7 +2199,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2250,7 +2481,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2264,71 +2495,71 @@
     <col min="13" max="13" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="121" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A1" s="122" t="s">
+    <row r="1" s="151" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
-    <row r="3" s="121" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A3" s="17" t="s">
+    <row r="3" s="151" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2357,19 +2588,19 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2386,9 +2617,497 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AH5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:34">
+      <c r="A1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="30:34">
+      <c r="AD2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+    </row>
+    <row r="3" s="22" customFormat="1" ht="24" customHeight="1" spans="1:34">
+      <c r="A3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+    </row>
+    <row r="4" s="22" customFormat="1" ht="24" customHeight="1" spans="1:34">
+      <c r="A4" s="24"/>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" s="23" customFormat="1" ht="24" customHeight="1" spans="1:34">
+      <c r="A5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH5" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="24.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="8" max="8" width="25.8833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -2409,20 +3128,20 @@
   <sheetData>
     <row r="1" ht="27" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="13:13">
       <c r="M2" t="s">
@@ -2430,89 +3149,89 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="11"/>
+      <c r="H4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>177</v>
+      <c r="M5" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -2535,19 +3254,19 @@
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2570,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -2591,7 +3310,7 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2604,7 +3323,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>149</v>
@@ -2616,12 +3335,12 @@
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -2636,7 +3355,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +3373,7 @@
   <dimension ref="A1:XEO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:P1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2665,24 +3384,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:16369">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
       <c r="AG1" t="s">
         <v>25</v>
       </c>
@@ -5751,111 +6470,111 @@
       </c>
     </row>
     <row r="2" spans="10:16">
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
     </row>
-    <row r="3" s="23" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A3" s="82" t="s">
+    <row r="3" s="22" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
+      <c r="A3" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="109" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="118"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="148"/>
     </row>
-    <row r="4" s="23" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A4" s="82"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" s="22" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
+      <c r="A4" s="113"/>
+      <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="89" t="s">
+      <c r="F4" s="143"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="120" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120" t="s">
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
     </row>
-    <row r="5" s="23" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A5" s="82"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116" t="s">
+    <row r="5" s="22" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
+      <c r="A5" s="113"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="110" t="s">
+      <c r="O5" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="31" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5884,28 +6603,28 @@
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5941,7 +6660,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="16.8833333333333" style="96" customWidth="1"/>
+    <col min="1" max="1" width="16.8833333333333" style="126" customWidth="1"/>
     <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="9.88333333333333" customWidth="1"/>
     <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
@@ -5953,262 +6672,262 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:19">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
-    <row r="2" s="94" customFormat="1" ht="12" spans="1:19">
-      <c r="A2" s="97"/>
-      <c r="P2" s="104" t="s">
+    <row r="2" s="124" customFormat="1" ht="12" spans="1:19">
+      <c r="A2" s="127"/>
+      <c r="P2" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
     </row>
-    <row r="3" s="94" customFormat="1" ht="12" spans="1:19">
-      <c r="A3" s="98" t="s">
+    <row r="3" s="124" customFormat="1" ht="12" spans="1:19">
+      <c r="A3" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
     </row>
-    <row r="4" s="94" customFormat="1" ht="21.6" customHeight="1" spans="1:19">
-      <c r="A4" s="99"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31" t="s">
+    <row r="4" s="124" customFormat="1" ht="21.6" customHeight="1" spans="1:19">
+      <c r="A4" s="129"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
     </row>
-    <row r="5" s="94" customFormat="1" ht="14.4" customHeight="1" spans="1:19">
-      <c r="A5" s="99"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="100" t="s">
+    <row r="5" s="124" customFormat="1" ht="14.4" customHeight="1" spans="1:19">
+      <c r="A5" s="129"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="100" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
     </row>
-    <row r="6" s="94" customFormat="1" ht="12" spans="1:19">
-      <c r="A6" s="99"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" s="124" customFormat="1" ht="12" spans="1:19">
+      <c r="A6" s="129"/>
+      <c r="B6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="98" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="31" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="106" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="105"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="135"/>
     </row>
-    <row r="7" s="94" customFormat="1" ht="57.6" customHeight="1" spans="1:19">
-      <c r="A7" s="101"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
+    <row r="7" s="124" customFormat="1" ht="57.6" customHeight="1" spans="1:19">
+      <c r="A7" s="131"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="131"/>
+      <c r="I7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
+      <c r="L7" s="130"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="31" t="s">
+      <c r="P7" s="136"/>
+      <c r="Q7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="95" customFormat="1" ht="24" customHeight="1" spans="1:19">
-      <c r="A8" s="102" t="s">
+    <row r="8" s="125" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A8" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="107" t="s">
+      <c r="P8" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="107" t="s">
+      <c r="S8" s="137" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6270,105 +6989,105 @@
     <col min="13" max="13" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="36" customHeight="1" spans="1:17">
-      <c r="A1" s="81" t="s">
+    <row r="1" s="22" customFormat="1" ht="36" customHeight="1" spans="1:17">
+      <c r="A1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
     </row>
-    <row r="2" s="23" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A2" s="82" t="s">
+    <row r="2" s="22" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A2" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="83" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="121"/>
     </row>
-    <row r="3" s="23" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A3" s="82"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" s="22" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A3" s="113"/>
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="85" t="s">
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
     </row>
-    <row r="4" s="23" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A4" s="82"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="37" t="s">
+    <row r="4" s="22" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="113" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6397,19 +7116,19 @@
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6452,640 +7171,640 @@
     <col min="13" max="13" width="12.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="1" ht="28.5" customHeight="1" spans="1:78">
-      <c r="A1" s="47" t="s">
+    <row r="1" s="87" customFormat="1" ht="28.5" customHeight="1" spans="1:78">
+      <c r="A1" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="78"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="78"/>
-      <c r="BU1" s="78"/>
-      <c r="BV1" s="78"/>
-      <c r="BW1" s="78"/>
-      <c r="BX1" s="78"/>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="104"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="109"/>
+      <c r="BG1" s="111"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="109"/>
+      <c r="BJ1" s="109"/>
+      <c r="BK1" s="109"/>
+      <c r="BL1" s="109"/>
+      <c r="BM1" s="109"/>
+      <c r="BN1" s="109"/>
+      <c r="BO1" s="109"/>
+      <c r="BP1" s="109"/>
+      <c r="BQ1" s="109"/>
+      <c r="BR1" s="109"/>
+      <c r="BS1" s="109"/>
+      <c r="BT1" s="109"/>
+      <c r="BU1" s="109"/>
+      <c r="BV1" s="109"/>
+      <c r="BW1" s="109"/>
+      <c r="BX1" s="109"/>
+      <c r="BY1" s="109"/>
+      <c r="BZ1" s="109"/>
     </row>
-    <row r="2" s="56" customFormat="1" ht="23.25" customHeight="1" spans="1:78">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="71" t="s">
+    <row r="2" s="87" customFormat="1" ht="23.25" customHeight="1" spans="1:78">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="76"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="76"/>
-      <c r="BK2" s="76"/>
-      <c r="BL2" s="76"/>
-      <c r="BM2" s="76"/>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="76"/>
-      <c r="BP2" s="76"/>
-      <c r="BQ2" s="76"/>
-      <c r="BR2" s="76"/>
-      <c r="BS2" s="78"/>
-      <c r="BT2" s="78"/>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="78"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="78"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="106"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="107"/>
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="109"/>
+      <c r="BT2" s="109"/>
+      <c r="BU2" s="109"/>
+      <c r="BV2" s="109"/>
+      <c r="BW2" s="109"/>
+      <c r="BX2" s="109"/>
+      <c r="BY2" s="109"/>
+      <c r="BZ2" s="109"/>
     </row>
-    <row r="3" s="56" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
-      <c r="A3" s="60" t="s">
+    <row r="3" s="87" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
+      <c r="A3" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="62" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="94"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61" t="s">
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61" t="s">
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61" t="s">
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61" t="s">
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61" t="s">
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61" t="s">
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61" t="s">
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61" t="s">
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61" t="s">
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="72" t="s">
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72" t="s">
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="77" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="109"/>
+      <c r="BC3" s="109"/>
+      <c r="BD3" s="109"/>
+      <c r="BE3" s="109"/>
+      <c r="BF3" s="109"/>
+      <c r="BG3" s="109"/>
+      <c r="BH3" s="109"/>
+      <c r="BI3" s="109"/>
+      <c r="BJ3" s="109"/>
     </row>
-    <row r="4" s="57" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
-      <c r="A4" s="65" t="s">
+    <row r="4" s="88" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
+      <c r="A4" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="52" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="61" t="s">
+      <c r="X4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="61" t="s">
+      <c r="AA4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="61" t="s">
+      <c r="AD4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="52" t="s">
+      <c r="AF4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="61" t="s">
+      <c r="AG4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="52" t="s">
+      <c r="AI4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AJ4" s="61" t="s">
+      <c r="AJ4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AK4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AL4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="61" t="s">
+      <c r="AM4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AN4" s="52" t="s">
+      <c r="AN4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="52" t="s">
+      <c r="AO4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AP4" s="61" t="s">
+      <c r="AP4" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AQ4" s="52" t="s">
+      <c r="AQ4" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="AR4" s="52" t="s">
+      <c r="AR4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AS4" s="61" t="s">
+      <c r="AS4" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="AT4" s="52" t="s">
+      <c r="AT4" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="52" t="s">
+      <c r="AU4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AV4" s="61" t="s">
+      <c r="AV4" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="AW4" s="52" t="s">
+      <c r="AW4" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="AX4" s="52" t="s">
+      <c r="AX4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AY4" s="61" t="s">
+      <c r="AY4" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="79"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
     </row>
-    <row r="5" s="24" customFormat="1" ht="23.25" customHeight="1" spans="1:51">
-      <c r="A5" s="30" t="s">
+    <row r="5" s="23" customFormat="1" ht="23.25" customHeight="1" spans="1:51">
+      <c r="A5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" s="31" t="s">
+      <c r="AB5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AC5" s="31" t="s">
+      <c r="AC5" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="31" t="s">
+      <c r="AD5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AE5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" s="31" t="s">
+      <c r="AF5" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AG5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="31" t="s">
+      <c r="AH5" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AI5" s="31" t="s">
+      <c r="AI5" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AJ5" s="31" t="s">
+      <c r="AJ5" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="AK5" s="31" t="s">
+      <c r="AK5" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AL5" s="31" t="s">
+      <c r="AL5" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AN5" s="31" t="s">
+      <c r="AN5" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AO5" s="31" t="s">
+      <c r="AO5" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AP5" s="31" t="s">
+      <c r="AP5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AQ5" s="31" t="s">
+      <c r="AQ5" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AR5" s="31" t="s">
+      <c r="AR5" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" s="31" t="s">
+      <c r="AS5" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AT5" s="31" t="s">
+      <c r="AT5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="AU5" s="31" t="s">
+      <c r="AU5" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="AV5" s="31" t="s">
+      <c r="AV5" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AW5" s="31" t="s">
+      <c r="AW5" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AX5" s="31" t="s">
+      <c r="AX5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AY5" s="31" t="s">
+      <c r="AY5" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="1:48">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7133,308 +7852,308 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:27">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
     </row>
     <row r="2" spans="22:27">
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
     </row>
-    <row r="3" s="23" customFormat="1" ht="27" customHeight="1" spans="1:53">
-      <c r="A3" s="48" t="s">
+    <row r="3" s="22" customFormat="1" ht="27" customHeight="1" spans="1:53">
+      <c r="A3" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="37" t="s">
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="38" t="s">
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="38" t="s">
+      <c r="W3" s="70"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
     </row>
-    <row r="4" s="36" customFormat="1" ht="35.25" customHeight="1" spans="1:53">
-      <c r="A4" s="50" t="s">
+    <row r="4" s="68" customFormat="1" ht="35.25" customHeight="1" spans="1:53">
+      <c r="A4" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
     </row>
-    <row r="5" s="24" customFormat="1" ht="24" customHeight="1" spans="1:27">
-      <c r="A5" s="30" t="s">
+    <row r="5" s="23" customFormat="1" ht="24" customHeight="1" spans="1:27">
+      <c r="A5" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="W5" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="31" t="s">
+      <c r="Y5" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7483,136 +8202,136 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="11:13">
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
-    <row r="3" s="36" customFormat="1" ht="42" customHeight="1" spans="1:37">
-      <c r="A3" s="37" t="s">
+    <row r="3" s="68" customFormat="1" ht="42" customHeight="1" spans="1:37">
+      <c r="A3" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
     </row>
-    <row r="4" s="36" customFormat="1" ht="42" customHeight="1" spans="1:37">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37" t="s">
+    <row r="4" s="68" customFormat="1" ht="42" customHeight="1" spans="1:37">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="69" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="37" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
@@ -7639,19 +8358,19 @@
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7675,349 +8394,178 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:34">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="26" customHeight="1" spans="1:19">
+      <c r="A1" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="30:34">
-      <c r="AD2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
+    <row r="2" spans="16:16">
+      <c r="P2" s="65" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" s="23" customFormat="1" ht="24" customHeight="1" spans="1:34">
-      <c r="A3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="3" ht="21" customHeight="1" spans="1:16">
+      <c r="A3" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="17" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:16">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="D4" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="34" t="s">
+      <c r="E4" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34" t="s">
+      <c r="G4" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34" t="s">
+      <c r="H4" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34" t="s">
+      <c r="I4" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="32" t="s">
+      <c r="L4" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:16">
+      <c r="A5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-    </row>
-    <row r="4" s="23" customFormat="1" ht="24" customHeight="1" spans="1:34">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH4" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" s="24" customFormat="1" ht="24" customHeight="1" spans="1:34">
-      <c r="A5" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="X5" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y5" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z5" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB5" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD5" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE5" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF5" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH5" s="31" t="s">
-        <v>111</v>
+      <c r="P5" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8025,137 +8573,364 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="24.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="35" customFormat="1" ht="18.75" spans="1:26">
+      <c r="A1" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+    </row>
+    <row r="2" s="35" customFormat="1" spans="24:28">
+      <c r="X2" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+    <row r="3" s="35" customFormat="1" ht="14.25" spans="1:28">
+      <c r="A3" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+    <row r="4" s="35" customFormat="1" spans="1:28">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="17"/>
+    <row r="5" s="35" customFormat="1" ht="43" customHeight="1" spans="1:28">
+      <c r="A5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>168</v>
+    <row r="6" s="36" customFormat="1" ht="24" customHeight="1" spans="1:28">
+      <c r="A6" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB6" s="32" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>170</v>
+    <row r="7" s="35" customFormat="1" spans="1:16">
+      <c r="A7" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="16" s="35" customFormat="1" spans="8:8">
+      <c r="H16" s="35" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
+  <mergeCells count="33">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/templateExport/导出_模板.xlsx
+++ b/templateExport/导出_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01总" sheetId="3" r:id="rId1"/>
@@ -658,17 +658,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;￥&quot;* _-#,##0;&quot;￥&quot;* \-#,##0;&quot;￥&quot;* _-&quot;-&quot;;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;* _-#,##0;&quot;￥&quot;* \-#,##0;&quot;￥&quot;* _-&quot;-&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -798,11 +798,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -817,23 +812,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,9 +834,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,15 +867,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,14 +905,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,28 +919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -939,12 +927,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -980,7 +980,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,55 +1112,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,115 +1160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,9 +1303,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,17 +1327,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,32 +1378,36 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,16 +1416,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,134 +1434,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1577,13 +1576,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1593,32 +1592,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1639,13 +1638,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1658,7 +1657,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,7 +1666,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +1681,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,13 +1690,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,10 +1705,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,169 +1720,166 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1892,10 +1888,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1942,13 +1938,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,30 +1953,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -2027,14 +2023,13 @@
     <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="货币_0801分析" xfId="48"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="货币_0801分析" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="?鹎%U龡&amp;H齲_x0001_C铣_x0014__x0007__x0001__x0001_" xfId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2495,22 +2490,22 @@
     <col min="13" max="13" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="151" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A1" s="152" t="s">
+    <row r="1" s="150" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -2522,7 +2517,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" s="151" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
+    <row r="3" s="150" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -3372,36 +3367,45 @@
   <sheetPr/>
   <dimension ref="A1:XEO6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="21.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:16369">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
       <c r="AG1" t="s">
         <v>25</v>
       </c>
@@ -6470,78 +6474,78 @@
       </c>
     </row>
     <row r="2" spans="10:16">
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
     </row>
     <row r="3" s="22" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="139" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="148"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="147"/>
     </row>
     <row r="4" s="22" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A4" s="113"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="119" t="s">
+      <c r="F4" s="142"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150" t="s">
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
     </row>
     <row r="5" s="22" customFormat="1" ht="26.25" customHeight="1" spans="1:16">
-      <c r="A5" s="113"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146" t="s">
+      <c r="C5" s="139"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -6550,28 +6554,28 @@
       <c r="G5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="140" t="s">
+      <c r="K5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="140" t="s">
+      <c r="L5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="140" t="s">
+      <c r="N5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="140" t="s">
+      <c r="O5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="P5" s="31" t="s">
@@ -6660,7 +6664,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="16.8833333333333" style="126" customWidth="1"/>
+    <col min="1" max="1" width="16.8833333333333" style="125" customWidth="1"/>
     <col min="3" max="3" width="14.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="9.88333333333333" customWidth="1"/>
     <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
@@ -6694,17 +6698,17 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" s="124" customFormat="1" ht="12" spans="1:19">
-      <c r="A2" s="127"/>
-      <c r="P2" s="134" t="s">
+    <row r="2" s="123" customFormat="1" ht="12" spans="1:19">
+      <c r="A2" s="126"/>
+      <c r="P2" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
     </row>
-    <row r="3" s="124" customFormat="1" ht="12" spans="1:19">
-      <c r="A3" s="128" t="s">
+    <row r="3" s="123" customFormat="1" ht="12" spans="1:19">
+      <c r="A3" s="127" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -6732,8 +6736,8 @@
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
     </row>
-    <row r="4" s="124" customFormat="1" ht="21.6" customHeight="1" spans="1:19">
-      <c r="A4" s="129"/>
+    <row r="4" s="123" customFormat="1" ht="21.6" customHeight="1" spans="1:19">
+      <c r="A4" s="128"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30" t="s">
@@ -6757,11 +6761,11 @@
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
     </row>
-    <row r="5" s="124" customFormat="1" ht="14.4" customHeight="1" spans="1:19">
-      <c r="A5" s="129"/>
+    <row r="5" s="123" customFormat="1" ht="14.4" customHeight="1" spans="1:19">
+      <c r="A5" s="128"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="129" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="30" t="s">
@@ -6775,7 +6779,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
-      <c r="L5" s="130" t="s">
+      <c r="L5" s="129" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="30" t="s">
@@ -6790,15 +6794,15 @@
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
     </row>
-    <row r="6" s="124" customFormat="1" ht="12" spans="1:19">
-      <c r="A6" s="129"/>
+    <row r="6" s="123" customFormat="1" ht="12" spans="1:19">
+      <c r="A6" s="128"/>
       <c r="B6" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="30" t="s">
         <v>58</v>
       </c>
@@ -6806,15 +6810,15 @@
         <v>59</v>
       </c>
       <c r="G6" s="30"/>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="127" t="s">
         <v>58</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="30"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="130"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="129"/>
       <c r="M6" s="30" t="s">
         <v>58</v>
       </c>
@@ -6822,20 +6826,20 @@
         <v>59</v>
       </c>
       <c r="O6" s="30"/>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="135" t="s">
         <v>58</v>
       </c>
       <c r="Q6" s="30" t="s">
         <v>59</v>
       </c>
       <c r="R6" s="30"/>
-      <c r="S6" s="135"/>
+      <c r="S6" s="134"/>
     </row>
-    <row r="7" s="124" customFormat="1" ht="57.6" customHeight="1" spans="1:19">
-      <c r="A7" s="131"/>
+    <row r="7" s="123" customFormat="1" ht="57.6" customHeight="1" spans="1:19">
+      <c r="A7" s="130"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="130"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
         <v>58</v>
@@ -6843,7 +6847,7 @@
       <c r="G7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="131"/>
+      <c r="H7" s="130"/>
       <c r="I7" s="30" t="s">
         <v>30</v>
       </c>
@@ -6853,7 +6857,7 @@
       <c r="K7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="130"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30" t="s">
         <v>58</v>
@@ -6861,7 +6865,7 @@
       <c r="O7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="136"/>
+      <c r="P7" s="135"/>
       <c r="Q7" s="30" t="s">
         <v>30</v>
       </c>
@@ -6872,62 +6876,62 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" s="125" customFormat="1" ht="24" customHeight="1" spans="1:19">
-      <c r="A8" s="132" t="s">
+    <row r="8" s="124" customFormat="1" ht="24" customHeight="1" spans="1:19">
+      <c r="A8" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="137" t="s">
+      <c r="K8" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="137" t="s">
+      <c r="L8" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="137" t="s">
+      <c r="M8" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="137" t="s">
+      <c r="N8" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="137" t="s">
+      <c r="O8" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="137" t="s">
+      <c r="P8" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="137" t="s">
+      <c r="Q8" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="137" t="s">
+      <c r="R8" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="137" t="s">
+      <c r="S8" s="136" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6990,28 +6994,28 @@
   </cols>
   <sheetData>
     <row r="1" s="22" customFormat="1" ht="36" customHeight="1" spans="1:17">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" s="22" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -7024,24 +7028,24 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" s="22" customFormat="1" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A3" s="113"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="114" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -7050,44 +7054,44 @@
       <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="114" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="122"/>
-      <c r="J3" s="123"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
     </row>
     <row r="4" s="22" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A4" s="113"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="69" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="112" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7171,433 +7175,433 @@
     <col min="13" max="13" width="12.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="87" customFormat="1" ht="28.5" customHeight="1" spans="1:78">
-      <c r="A1" s="78" t="s">
+    <row r="1" s="86" customFormat="1" ht="28.5" customHeight="1" spans="1:78">
+      <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="105"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="109"/>
-      <c r="BF1" s="109"/>
-      <c r="BG1" s="111"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
-      <c r="BN1" s="109"/>
-      <c r="BO1" s="109"/>
-      <c r="BP1" s="109"/>
-      <c r="BQ1" s="109"/>
-      <c r="BR1" s="109"/>
-      <c r="BS1" s="109"/>
-      <c r="BT1" s="109"/>
-      <c r="BU1" s="109"/>
-      <c r="BV1" s="109"/>
-      <c r="BW1" s="109"/>
-      <c r="BX1" s="109"/>
-      <c r="BY1" s="109"/>
-      <c r="BZ1" s="109"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="104"/>
+      <c r="BC1" s="104"/>
+      <c r="BD1" s="104"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="110"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+      <c r="BL1" s="108"/>
+      <c r="BM1" s="108"/>
+      <c r="BN1" s="108"/>
+      <c r="BO1" s="108"/>
+      <c r="BP1" s="108"/>
+      <c r="BQ1" s="108"/>
+      <c r="BR1" s="108"/>
+      <c r="BS1" s="108"/>
+      <c r="BT1" s="108"/>
+      <c r="BU1" s="108"/>
+      <c r="BV1" s="108"/>
+      <c r="BW1" s="108"/>
+      <c r="BX1" s="108"/>
+      <c r="BY1" s="108"/>
+      <c r="BZ1" s="108"/>
     </row>
-    <row r="2" s="87" customFormat="1" ht="23.25" customHeight="1" spans="1:78">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="102" t="s">
+    <row r="2" s="86" customFormat="1" ht="23.25" customHeight="1" spans="1:78">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="107"/>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="107"/>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="107"/>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="109"/>
-      <c r="BT2" s="109"/>
-      <c r="BU2" s="109"/>
-      <c r="BV2" s="109"/>
-      <c r="BW2" s="109"/>
-      <c r="BX2" s="109"/>
-      <c r="BY2" s="109"/>
-      <c r="BZ2" s="109"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="106"/>
+      <c r="BC2" s="106"/>
+      <c r="BD2" s="106"/>
+      <c r="BE2" s="106"/>
+      <c r="BF2" s="106"/>
+      <c r="BG2" s="106"/>
+      <c r="BH2" s="106"/>
+      <c r="BI2" s="106"/>
+      <c r="BJ2" s="106"/>
+      <c r="BK2" s="106"/>
+      <c r="BL2" s="106"/>
+      <c r="BM2" s="106"/>
+      <c r="BN2" s="106"/>
+      <c r="BO2" s="106"/>
+      <c r="BP2" s="106"/>
+      <c r="BQ2" s="106"/>
+      <c r="BR2" s="106"/>
+      <c r="BS2" s="108"/>
+      <c r="BT2" s="108"/>
+      <c r="BU2" s="108"/>
+      <c r="BV2" s="108"/>
+      <c r="BW2" s="108"/>
+      <c r="BX2" s="108"/>
+      <c r="BY2" s="108"/>
+      <c r="BZ2" s="108"/>
     </row>
-    <row r="3" s="87" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
-      <c r="A3" s="91" t="s">
+    <row r="3" s="86" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
+      <c r="A3" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="93" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="92" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92" t="s">
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92" t="s">
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92" t="s">
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92" t="s">
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92" t="s">
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92" t="s">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92" t="s">
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92" t="s">
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92" t="s">
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="103" t="s">
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103" t="s">
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="108" t="s">
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="102"/>
+      <c r="AW3" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="109"/>
-      <c r="BB3" s="109"/>
-      <c r="BC3" s="109"/>
-      <c r="BD3" s="109"/>
-      <c r="BE3" s="109"/>
-      <c r="BF3" s="109"/>
-      <c r="BG3" s="109"/>
-      <c r="BH3" s="109"/>
-      <c r="BI3" s="109"/>
-      <c r="BJ3" s="109"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
     </row>
-    <row r="4" s="88" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
-      <c r="A4" s="96" t="s">
+    <row r="4" s="87" customFormat="1" ht="23.25" customHeight="1" spans="1:62">
+      <c r="A4" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="83" t="s">
+      <c r="T4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="92" t="s">
+      <c r="X4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="83" t="s">
+      <c r="Y4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="83" t="s">
+      <c r="Z4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="92" t="s">
+      <c r="AA4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="83" t="s">
+      <c r="AB4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="83" t="s">
+      <c r="AC4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="92" t="s">
+      <c r="AD4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="83" t="s">
+      <c r="AE4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="83" t="s">
+      <c r="AF4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="92" t="s">
+      <c r="AG4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AH4" s="83" t="s">
+      <c r="AH4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="83" t="s">
+      <c r="AI4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AJ4" s="92" t="s">
+      <c r="AJ4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="83" t="s">
+      <c r="AK4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="83" t="s">
+      <c r="AL4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="92" t="s">
+      <c r="AM4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AN4" s="83" t="s">
+      <c r="AN4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="83" t="s">
+      <c r="AO4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AP4" s="92" t="s">
+      <c r="AP4" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AQ4" s="83" t="s">
+      <c r="AQ4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="AR4" s="83" t="s">
+      <c r="AR4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AS4" s="92" t="s">
+      <c r="AS4" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="AT4" s="83" t="s">
+      <c r="AT4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="83" t="s">
+      <c r="AU4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AV4" s="92" t="s">
+      <c r="AV4" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="AW4" s="83" t="s">
+      <c r="AW4" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="AX4" s="83" t="s">
+      <c r="AX4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AY4" s="92" t="s">
+      <c r="AY4" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
     </row>
     <row r="5" s="23" customFormat="1" ht="23.25" customHeight="1" spans="1:51">
       <c r="A5" s="29" t="s">
@@ -7755,56 +7759,56 @@
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="1:48">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="97"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7852,227 +7856,227 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:27">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
     </row>
     <row r="2" spans="22:27">
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
     </row>
     <row r="3" s="22" customFormat="1" ht="27" customHeight="1" spans="1:53">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="84" t="s">
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="69" t="s">
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
       <c r="V3" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="W3" s="70"/>
-      <c r="X3" s="80"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="79"/>
       <c r="Y3" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
     </row>
-    <row r="4" s="68" customFormat="1" ht="35.25" customHeight="1" spans="1:53">
-      <c r="A4" s="81" t="s">
+    <row r="4" s="67" customFormat="1" ht="35.25" customHeight="1" spans="1:53">
+      <c r="A4" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="82" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="83" t="s">
+      <c r="T4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="83" t="s">
+      <c r="W4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="69" t="s">
+      <c r="X4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="82" t="s">
+      <c r="Y4" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="Z4" s="83" t="s">
+      <c r="Z4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="69" t="s">
+      <c r="AA4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
     </row>
     <row r="5" s="23" customFormat="1" ht="24" customHeight="1" spans="1:27">
       <c r="A5" s="29" t="s">
@@ -8219,119 +8223,119 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="11:13">
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
     </row>
-    <row r="3" s="68" customFormat="1" ht="42" customHeight="1" spans="1:37">
-      <c r="A3" s="69" t="s">
+    <row r="3" s="67" customFormat="1" ht="42" customHeight="1" spans="1:37">
+      <c r="A3" s="68" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
     </row>
-    <row r="4" s="68" customFormat="1" ht="42" customHeight="1" spans="1:37">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69" t="s">
+    <row r="4" s="67" customFormat="1" ht="42" customHeight="1" spans="1:37">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="69" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
@@ -8396,7 +8400,7 @@
   <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -8409,101 +8413,101 @@
       <c r="A1" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:16">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:16">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="62" t="s">
         <v>94</v>
       </c>
     </row>
